--- a/data_excel/519.xlsx
+++ b/data_excel/519.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kokoronight\Desktop\前400題example excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -75,9 +75,6 @@
     <t>還有</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
     <t>=</t>
   </si>
   <si>
@@ -131,6 +128,10 @@
   </si>
   <si>
     <t>=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -513,7 +514,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -546,7 +547,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -558,7 +559,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -566,7 +567,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -578,7 +579,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -586,30 +587,30 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" t="s">
         <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
       </c>
       <c r="F5" t="s">
         <v>1</v>
@@ -620,10 +621,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
         <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
@@ -637,38 +638,38 @@
     </row>
     <row r="7" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>26</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
         <v>27</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
@@ -679,13 +680,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -696,20 +697,20 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
